--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129495.2738834267</v>
+        <v>121251.7247874736</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29945736.18389927</v>
+        <v>29945736.18389928</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4145381.526755833</v>
+        <v>4145381.526755832</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>58.22130944557739</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>31.81786123520703</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>108.4023409480047</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>53.88189071499353</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>47.44324593479519</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>52.25113434416992</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1779,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>22.28980058783192</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>166.4103693893376</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>78.88510268124708</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>123.8101519804953</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>8.529433906218578</v>
+        <v>75.30872342449359</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>99.54098133534613</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>136.6542095511074</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.01432013375601</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>141.3704187448028</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>342.9591514312306</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>289.6447000475092</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.5900972850689</v>
@@ -2383,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2414,7 +2414,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H24" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T24" t="n">
         <v>135.5747030934602</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>112.2297191559162</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5780456014529</v>
+        <v>136.7040807549273</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S25" t="n">
         <v>150.7214115632189</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>234.5913496232033</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>63.07107366043223</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T26" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,10 +2620,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H27" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T27" t="n">
         <v>135.5747030934602</v>
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>9.088803288266945</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>3.382089587069616</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S28" t="n">
         <v>150.7214115632189</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>135.9512993135153</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>205.3016153722392</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H30" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T30" t="n">
         <v>135.5747030934602</v>
@@ -2955,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>103.3064982617355</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2970,7 +2970,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I31" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U31" t="n">
-        <v>106.1690169059144</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3034,16 +3034,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H32" t="n">
         <v>271.6851953721275</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T32" t="n">
         <v>208.7978291248855</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>61.71571271969131</v>
+        <v>59.49904558044867</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H33" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T33" t="n">
         <v>135.5747030934602</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.5780456014529</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.20633367524529</v>
+        <v>47.79863871843386</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>150.7214115632189</v>
       </c>
       <c r="T34" t="n">
-        <v>28.33406785094009</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>48.51730901936504</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H35" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>56.90797275514704</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H36" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T36" t="n">
         <v>135.5747030934602</v>
@@ -3441,10 +3441,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H37" t="n">
-        <v>74.94488428509757</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I37" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>129.382562026676</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>42.65110875242301</v>
+        <v>120.8049127116256</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H39" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T39" t="n">
         <v>135.5747030934602</v>
@@ -3681,7 +3681,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I40" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T40" t="n">
-        <v>178.186242218954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>215.2244995651718</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>56.24503221619954</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>271.6851953721275</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U41" t="n">
-        <v>107.9995774727313</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H42" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T42" t="n">
         <v>135.5747030934602</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>129.5541604178927</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3915,10 +3915,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
-        <v>68.20633367524528</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952046827</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3271665015756</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>29.90125406741506</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.6919815555191</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T44" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
-        <v>53.84649344414618</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>80.84687092262372</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H45" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T45" t="n">
         <v>135.5747030934602</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>22.35860659023931</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4155,7 +4155,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952046827</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>150.7214115632189</v>
@@ -4191,10 +4191,10 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>232.3486766117732</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.27616607839228</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839228</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839228</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E11" t="n">
         <v>36.27616607839228</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303106</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5071,22 +5071,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V11" t="n">
-        <v>920.2712038954132</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W11" t="n">
-        <v>861.461800415032</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X11" t="n">
-        <v>861.461800415032</v>
+        <v>1337.533344810001</v>
       </c>
       <c r="Y11" t="n">
-        <v>456.1245303699224</v>
+        <v>1305.394091037065</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607426</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760275</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489647</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318688</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004349</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H12" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>921.7487118335988</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>1232.032635645392</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.474417479231</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453737</v>
@@ -5162,10 +5162,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>862.3459777383889</v>
+        <v>546.3187092720623</v>
       </c>
       <c r="C13" t="n">
-        <v>862.3459777383889</v>
+        <v>374.3461461509783</v>
       </c>
       <c r="D13" t="n">
-        <v>752.8486636494953</v>
+        <v>374.3461461509783</v>
       </c>
       <c r="E13" t="n">
-        <v>586.6404578023488</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
@@ -5205,19 +5205,19 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>912.7564163623085</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M13" t="n">
-        <v>1010.809763939928</v>
+        <v>654.3880318200453</v>
       </c>
       <c r="N13" t="n">
-        <v>1152.699903436724</v>
+        <v>941.448973416843</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259049</v>
+        <v>1390.366528636948</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5226,25 +5226,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1417.340083083371</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1137.198381565876</v>
+        <v>1519.391317513844</v>
       </c>
       <c r="V13" t="n">
-        <v>1137.198381565876</v>
+        <v>1237.679850121873</v>
       </c>
       <c r="W13" t="n">
-        <v>862.3459777383889</v>
+        <v>962.8274462943859</v>
       </c>
       <c r="X13" t="n">
-        <v>862.3459777383889</v>
+        <v>962.8274462943859</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.3459777383889</v>
+        <v>736.484677984128</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>512.3477104733616</v>
+        <v>766.7663454395201</v>
       </c>
       <c r="C14" t="n">
-        <v>512.3477104733616</v>
+        <v>766.7663454395201</v>
       </c>
       <c r="D14" t="n">
-        <v>89.05508965836191</v>
+        <v>766.7663454395201</v>
       </c>
       <c r="E14" t="n">
-        <v>89.05508965836191</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F14" t="n">
-        <v>89.05508965836191</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G14" t="n">
-        <v>89.05508965836191</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149079</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L14" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5296,10 +5296,10 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
@@ -5308,22 +5308,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1749.253343642254</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U14" t="n">
-        <v>1749.253343642254</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V14" t="n">
-        <v>1749.253343642254</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="W14" t="n">
-        <v>1749.253343642254</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="X14" t="n">
-        <v>1337.533344810001</v>
+        <v>766.7663454395201</v>
       </c>
       <c r="Y14" t="n">
-        <v>932.1960747648917</v>
+        <v>766.7663454395201</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968661</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>333.4446641276584</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>510.0835149583073</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>719.3582134393224</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
-        <v>936.5131952716387</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1131.556862259125</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453736</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>568.8336593607814</v>
+        <v>711.7919843041564</v>
       </c>
       <c r="C16" t="n">
-        <v>396.8610962396974</v>
+        <v>539.8194211830723</v>
       </c>
       <c r="D16" t="n">
-        <v>396.8610962396974</v>
+        <v>539.8194211830723</v>
       </c>
       <c r="E16" t="n">
-        <v>230.652890392551</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F16" t="n">
-        <v>58.7911161671114</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G16" t="n">
-        <v>58.7911161671114</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583899</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K16" t="n">
-        <v>138.6345353799612</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L16" t="n">
-        <v>587.5520906000658</v>
+        <v>834.8346997140877</v>
       </c>
       <c r="M16" t="n">
-        <v>685.605438177685</v>
+        <v>932.8880472917069</v>
       </c>
       <c r="N16" t="n">
-        <v>941.4489734168435</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O16" t="n">
-        <v>1390.366528636948</v>
+        <v>1478.804308603759</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351392</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.530066266138</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1405.539232097735</v>
+        <v>1645.717021708162</v>
       </c>
       <c r="U16" t="n">
-        <v>1125.39753058024</v>
+        <v>1645.717021708162</v>
       </c>
       <c r="V16" t="n">
-        <v>843.6860631882685</v>
+        <v>1645.717021708162</v>
       </c>
       <c r="W16" t="n">
-        <v>568.8336593607814</v>
+        <v>1370.864617880675</v>
       </c>
       <c r="X16" t="n">
-        <v>568.8336593607814</v>
+        <v>1128.30072132648</v>
       </c>
       <c r="Y16" t="n">
-        <v>568.8336593607814</v>
+        <v>901.9579530162221</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1393.959939628084</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="C17" t="n">
-        <v>967.0592096413841</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="D17" t="n">
-        <v>967.0592096413841</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="E17" t="n">
-        <v>541.0822697892416</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="F17" t="n">
-        <v>115.9580879786419</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
@@ -5545,22 +5545,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1475.469959846626</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1117.980544972875</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>721.5891952732222</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.808303919614</v>
+        <v>721.5891952732222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.808303919614</v>
+        <v>316.2519252281125</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760276</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004382</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839282</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968713</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>433.5238427951073</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663473</v>
+        <v>590.33890554562</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969962</v>
+        <v>766.977756376269</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780112</v>
+        <v>976.252454857284</v>
       </c>
       <c r="N18" t="n">
-        <v>1162.360999510327</v>
+        <v>1193.4074366896</v>
       </c>
       <c r="O18" t="n">
-        <v>1357.404666497814</v>
+        <v>1388.451103677087</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.802781344167</v>
+        <v>1541.84921852344</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>429.8935614701604</v>
+        <v>916.1449109456264</v>
       </c>
       <c r="C19" t="n">
-        <v>257.9209983490764</v>
+        <v>744.1723478245424</v>
       </c>
       <c r="D19" t="n">
-        <v>257.9209983490764</v>
+        <v>580.8555749513131</v>
       </c>
       <c r="E19" t="n">
-        <v>257.9209983490764</v>
+        <v>414.6473691041666</v>
       </c>
       <c r="F19" t="n">
-        <v>249.3054085448152</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G19" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K19" t="n">
-        <v>463.838861142204</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L19" t="n">
-        <v>912.7564163623085</v>
+        <v>746.3969197472759</v>
       </c>
       <c r="M19" t="n">
-        <v>1010.809763939928</v>
+        <v>844.4502673248951</v>
       </c>
       <c r="N19" t="n">
-        <v>1107.808470031876</v>
+        <v>941.448973416843</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259049</v>
+        <v>1390.366528636948</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266137</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.530066266137</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U19" t="n">
-        <v>1645.530066266137</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V19" t="n">
-        <v>1363.818598874166</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="W19" t="n">
-        <v>1088.966195046679</v>
+        <v>1142.487679255884</v>
       </c>
       <c r="X19" t="n">
-        <v>846.402298492484</v>
+        <v>1142.487679255884</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.059530182226</v>
+        <v>916.1449109456264</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1813.808303919614</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C20" t="n">
-        <v>1813.808303919614</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D20" t="n">
-        <v>1390.515683104614</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E20" t="n">
-        <v>964.5387432524714</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F20" t="n">
-        <v>539.4145614418716</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
-        <v>136.8226118716712</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
         <v>68.08893453872668</v>
@@ -5758,16 +5758,16 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P20" t="n">
         <v>1591.77691709091</v>
@@ -5791,13 +5791,13 @@
         <v>1813.808303919614</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.808303919614</v>
+        <v>1675.773748817485</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.808303919614</v>
+        <v>1264.053749985233</v>
       </c>
       <c r="Y20" t="n">
-        <v>1813.808303919614</v>
+        <v>858.7164799401228</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
         <v>75.26691519968659</v>
@@ -5834,22 +5834,22 @@
         <v>141.4213503255156</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967556</v>
+        <v>267.1899758967557</v>
       </c>
       <c r="L21" t="n">
-        <v>443.8288267274046</v>
+        <v>443.8288267274047</v>
       </c>
       <c r="M21" t="n">
-        <v>653.1035252084196</v>
+        <v>653.1035252084198</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.021080428524</v>
+        <v>870.258507040736</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1065.302174028223</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.27616607839227</v>
+        <v>1011.937267570567</v>
       </c>
       <c r="C22" t="n">
-        <v>36.27616607839227</v>
+        <v>839.9647044494834</v>
       </c>
       <c r="D22" t="n">
-        <v>36.27616607839227</v>
+        <v>676.6479315762541</v>
       </c>
       <c r="E22" t="n">
-        <v>36.27616607839227</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F22" t="n">
-        <v>36.27616607839227</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839227</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K22" t="n">
-        <v>463.838861142204</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L22" t="n">
-        <v>912.7564163623083</v>
+        <v>834.8346997140877</v>
       </c>
       <c r="M22" t="n">
-        <v>1010.809763939928</v>
+        <v>932.8880472917069</v>
       </c>
       <c r="N22" t="n">
-        <v>1107.808470031875</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O22" t="n">
-        <v>1551.749235832356</v>
+        <v>1390.366528636948</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.530066266137</v>
+        <v>1671.009901147086</v>
       </c>
       <c r="T22" t="n">
-        <v>1405.539232097734</v>
+        <v>1671.009901147086</v>
       </c>
       <c r="U22" t="n">
-        <v>1125.397530580239</v>
+        <v>1671.009901147086</v>
       </c>
       <c r="V22" t="n">
-        <v>843.6860631882676</v>
+        <v>1671.009901147086</v>
       </c>
       <c r="W22" t="n">
-        <v>568.8336593607805</v>
+        <v>1671.009901147086</v>
       </c>
       <c r="X22" t="n">
-        <v>326.2697628065856</v>
+        <v>1428.446004592891</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.92699449632764</v>
+        <v>1202.103236282633</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.1918394690427</v>
+        <v>1018.818736407239</v>
       </c>
       <c r="C23" t="n">
-        <v>49.7684541849714</v>
+        <v>1018.818736407239</v>
       </c>
       <c r="D23" t="n">
-        <v>49.7684541849714</v>
+        <v>1018.818736407239</v>
       </c>
       <c r="E23" t="n">
-        <v>49.7684541849714</v>
+        <v>1018.818736407239</v>
       </c>
       <c r="F23" t="n">
-        <v>49.7684541849714</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G23" t="n">
-        <v>49.7684541849714</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H23" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I23" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J23" t="n">
         <v>263.3013860486624</v>
       </c>
       <c r="K23" t="n">
-        <v>513.2289698376791</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385799</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M23" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N23" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O23" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P23" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q23" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S23" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T23" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U23" t="n">
-        <v>1967.129872919809</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V23" t="n">
-        <v>1609.640458046058</v>
+        <v>1820.547356152002</v>
       </c>
       <c r="W23" t="n">
-        <v>1213.249108346405</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="X23" t="n">
-        <v>801.5291095141524</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.1918394690427</v>
+        <v>1018.818736407239</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H24" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I24" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K24" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L24" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M24" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N24" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O24" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P24" t="n">
         <v>1635.880495210175</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1033.31287339389</v>
+        <v>600.583008127629</v>
       </c>
       <c r="C25" t="n">
-        <v>919.9495207111468</v>
+        <v>428.610445006545</v>
       </c>
       <c r="D25" t="n">
-        <v>756.6327478379175</v>
+        <v>428.610445006545</v>
       </c>
       <c r="E25" t="n">
-        <v>590.424541990771</v>
+        <v>428.610445006545</v>
       </c>
       <c r="F25" t="n">
-        <v>418.5627677653314</v>
+        <v>256.7486707811054</v>
       </c>
       <c r="G25" t="n">
-        <v>253.3324186729547</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="H25" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J25" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K25" t="n">
-        <v>521.8261615648511</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L25" t="n">
-        <v>1026.108622645836</v>
+        <v>700.9042968835935</v>
       </c>
       <c r="M25" t="n">
-        <v>1575.019409015117</v>
+        <v>1249.815083252874</v>
       </c>
       <c r="N25" t="n">
-        <v>1744.928082478455</v>
+        <v>1781.281237765161</v>
       </c>
       <c r="O25" t="n">
-        <v>1864.874391771335</v>
+        <v>2177.630596344642</v>
       </c>
       <c r="P25" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S25" t="n">
-        <v>2335.300841815819</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T25" t="n">
-        <v>2096.347963935299</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.219512923607</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V25" t="n">
-        <v>1534.508045531635</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.655641704148</v>
+        <v>1259.655641704147</v>
       </c>
       <c r="X25" t="n">
-        <v>1259.655641704148</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y25" t="n">
-        <v>1033.31287339389</v>
+        <v>790.7489768396946</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.7294134003283</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="C26" t="n">
-        <v>49.76845418497139</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="D26" t="n">
-        <v>49.76845418497139</v>
+        <v>789.956487531404</v>
       </c>
       <c r="E26" t="n">
-        <v>49.76845418497139</v>
+        <v>789.956487531404</v>
       </c>
       <c r="F26" t="n">
-        <v>49.76845418497139</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="G26" t="n">
-        <v>49.76845418497139</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H26" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I26" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147721</v>
       </c>
       <c r="J26" t="n">
         <v>263.3013860486622</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376788</v>
+        <v>513.2289698376787</v>
       </c>
       <c r="L26" t="n">
-        <v>829.2827739385798</v>
+        <v>829.2827739385796</v>
       </c>
       <c r="M26" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N26" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O26" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P26" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q26" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R26" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S26" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T26" t="n">
-        <v>2277.515811142624</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U26" t="n">
-        <v>2277.515811142624</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="V26" t="n">
-        <v>1920.026396268874</v>
+        <v>1609.640458046057</v>
       </c>
       <c r="W26" t="n">
-        <v>1523.635046569221</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X26" t="n">
-        <v>1111.915047736968</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="Y26" t="n">
-        <v>706.5777776918584</v>
+        <v>1213.249108346404</v>
       </c>
     </row>
     <row r="27">
@@ -6287,34 +6287,34 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D27" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E27" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F27" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G27" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H27" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I27" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J27" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K27" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L27" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M27" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N27" t="n">
         <v>1165.638568386506</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>600.5830081276295</v>
+        <v>600.5830081276285</v>
       </c>
       <c r="C28" t="n">
-        <v>428.6104450065454</v>
+        <v>591.4023987455407</v>
       </c>
       <c r="D28" t="n">
-        <v>428.6104450065454</v>
+        <v>591.4023987455407</v>
       </c>
       <c r="E28" t="n">
-        <v>428.6104450065454</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="F28" t="n">
-        <v>256.7486707811058</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="G28" t="n">
         <v>253.3324186729547</v>
@@ -6381,55 +6381,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I28" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="J28" t="n">
-        <v>178.3974764362857</v>
+        <v>150.5499821493611</v>
       </c>
       <c r="K28" t="n">
-        <v>521.826161564851</v>
+        <v>246.6960581639044</v>
       </c>
       <c r="L28" t="n">
-        <v>649.7197290546715</v>
+        <v>750.9785192448899</v>
       </c>
       <c r="M28" t="n">
-        <v>1198.630515423952</v>
+        <v>1299.889305614171</v>
       </c>
       <c r="N28" t="n">
-        <v>1730.096669936239</v>
+        <v>1831.355460126457</v>
       </c>
       <c r="O28" t="n">
-        <v>2227.745303532322</v>
+        <v>2329.004093722541</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.282522188269</v>
+        <v>2428.541312378487</v>
       </c>
       <c r="Q28" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S28" t="n">
-        <v>2335.300841815818</v>
+        <v>2335.300841815817</v>
       </c>
       <c r="T28" t="n">
-        <v>2096.347963935299</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.219512923606</v>
+        <v>1816.219512923605</v>
       </c>
       <c r="V28" t="n">
-        <v>1534.508045531635</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.655641704148</v>
+        <v>1259.655641704147</v>
       </c>
       <c r="X28" t="n">
-        <v>1017.091745149953</v>
+        <v>1017.091745149952</v>
       </c>
       <c r="Y28" t="n">
-        <v>790.748976839695</v>
+        <v>790.7489768396941</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>683.1207630999818</v>
+        <v>875.1114628589698</v>
       </c>
       <c r="C29" t="n">
-        <v>683.1207630999818</v>
+        <v>875.1114628589698</v>
       </c>
       <c r="D29" t="n">
-        <v>683.1207630999818</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="E29" t="n">
-        <v>257.1438232478394</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F29" t="n">
-        <v>49.7684541849714</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I29" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147725</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486617</v>
       </c>
       <c r="K29" t="n">
-        <v>513.2289698376794</v>
+        <v>513.2289698376783</v>
       </c>
       <c r="L29" t="n">
-        <v>829.2827739385804</v>
+        <v>829.2827739385792</v>
       </c>
       <c r="M29" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N29" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O29" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P29" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q29" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R29" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S29" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T29" t="n">
-        <v>2277.515811142625</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U29" t="n">
-        <v>2277.515811142625</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V29" t="n">
-        <v>1920.026396268874</v>
+        <v>1820.547356152002</v>
       </c>
       <c r="W29" t="n">
-        <v>1920.026396268874</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="X29" t="n">
-        <v>1508.306397436622</v>
+        <v>1012.436007620096</v>
       </c>
       <c r="Y29" t="n">
-        <v>1102.969127391512</v>
+        <v>1012.436007620096</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H30" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I30" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J30" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K30" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L30" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M30" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N30" t="n">
         <v>1165.638568386506</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>925.7138779850843</v>
+        <v>1032.955309203179</v>
       </c>
       <c r="C31" t="n">
-        <v>753.7413148640003</v>
+        <v>860.9827460820948</v>
       </c>
       <c r="D31" t="n">
-        <v>590.424541990771</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E31" t="n">
         <v>590.424541990771</v>
@@ -6618,55 +6618,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I31" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J31" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K31" t="n">
-        <v>246.6960581639056</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L31" t="n">
-        <v>750.9785192448911</v>
+        <v>649.7197290546715</v>
       </c>
       <c r="M31" t="n">
-        <v>1299.889305614172</v>
+        <v>835.7596036629643</v>
       </c>
       <c r="N31" t="n">
-        <v>1831.355460126458</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O31" t="n">
-        <v>2329.004093722542</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P31" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q31" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S31" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T31" t="n">
-        <v>2248.591813999156</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U31" t="n">
-        <v>2141.350382781061</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="V31" t="n">
-        <v>1859.63891538909</v>
+        <v>1966.880346607184</v>
       </c>
       <c r="W31" t="n">
-        <v>1584.786511561603</v>
+        <v>1692.027942779697</v>
       </c>
       <c r="X31" t="n">
-        <v>1342.222615007408</v>
+        <v>1449.464046225502</v>
       </c>
       <c r="Y31" t="n">
-        <v>1115.87984669715</v>
+        <v>1223.121277915244</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1599.515477072147</v>
+        <v>1153.149062305546</v>
       </c>
       <c r="C32" t="n">
-        <v>1172.614747085447</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="D32" t="n">
-        <v>749.3221262704474</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="E32" t="n">
-        <v>749.3221262704474</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="F32" t="n">
-        <v>324.1979444598476</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="G32" t="n">
         <v>324.1979444598476</v>
       </c>
       <c r="H32" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I32" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486623</v>
       </c>
       <c r="K32" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376783</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385799</v>
+        <v>829.2827739385791</v>
       </c>
       <c r="M32" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O32" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q32" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R32" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S32" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="T32" t="n">
-        <v>2277.515811142625</v>
+        <v>2225.30168835927</v>
       </c>
       <c r="U32" t="n">
-        <v>2019.343995703161</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="V32" t="n">
-        <v>1661.854580829411</v>
+        <v>1609.640458046056</v>
       </c>
       <c r="W32" t="n">
-        <v>1661.854580829411</v>
+        <v>1213.249108346403</v>
       </c>
       <c r="X32" t="n">
-        <v>1661.854580829411</v>
+        <v>1213.249108346403</v>
       </c>
       <c r="Y32" t="n">
-        <v>1599.515477072147</v>
+        <v>1153.149062305546</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D33" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E33" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F33" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G33" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H33" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I33" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K33" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L33" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M33" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N33" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O33" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P33" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q33" t="n">
         <v>1766.562892296344</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.922083832231</v>
+        <v>601.4610254965219</v>
       </c>
       <c r="C34" t="n">
-        <v>919.9495207111468</v>
+        <v>429.4884623754378</v>
       </c>
       <c r="D34" t="n">
-        <v>756.6327478379175</v>
+        <v>429.4884623754378</v>
       </c>
       <c r="E34" t="n">
-        <v>590.424541990771</v>
+        <v>263.2802565282914</v>
       </c>
       <c r="F34" t="n">
-        <v>418.5627677653314</v>
+        <v>263.2802565282914</v>
       </c>
       <c r="G34" t="n">
-        <v>253.3324186729547</v>
+        <v>98.04990743591466</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6637407256232</v>
+        <v>98.04990743591466</v>
       </c>
       <c r="I34" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="J34" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K34" t="n">
-        <v>521.8261615648511</v>
+        <v>443.90444491663</v>
       </c>
       <c r="L34" t="n">
-        <v>977.307346170195</v>
+        <v>851.7577951344038</v>
       </c>
       <c r="M34" t="n">
-        <v>1526.218132539476</v>
+        <v>987.1331010408626</v>
       </c>
       <c r="N34" t="n">
-        <v>2057.684287051763</v>
+        <v>1518.599255553149</v>
       </c>
       <c r="O34" t="n">
-        <v>2177.630596344643</v>
+        <v>2016.247889149233</v>
       </c>
       <c r="P34" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378487</v>
       </c>
       <c r="Q34" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R34" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.178859184713</v>
+        <v>2336.178859184711</v>
       </c>
       <c r="T34" t="n">
-        <v>2307.558588628207</v>
+        <v>2097.225981304191</v>
       </c>
       <c r="U34" t="n">
-        <v>2307.558588628207</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V34" t="n">
-        <v>2025.847121236236</v>
+        <v>1535.386062900527</v>
       </c>
       <c r="W34" t="n">
-        <v>1750.994717408749</v>
+        <v>1260.53365907304</v>
       </c>
       <c r="X34" t="n">
-        <v>1508.430820854554</v>
+        <v>1017.969762518845</v>
       </c>
       <c r="Y34" t="n">
-        <v>1282.088052544296</v>
+        <v>791.6269942085875</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>324.1979444598476</v>
+        <v>1352.851136689113</v>
       </c>
       <c r="C35" t="n">
-        <v>324.1979444598476</v>
+        <v>925.9504067024134</v>
       </c>
       <c r="D35" t="n">
-        <v>324.1979444598476</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="E35" t="n">
-        <v>324.1979444598476</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1979444598476</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G35" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H35" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I35" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K35" t="n">
-        <v>513.2289698376794</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L35" t="n">
-        <v>829.2827739385804</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M35" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P35" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q35" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R35" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S35" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T35" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U35" t="n">
-        <v>1967.129872919809</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V35" t="n">
-        <v>1609.640458046058</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="W35" t="n">
-        <v>1213.249108346405</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="X35" t="n">
-        <v>801.5291095141524</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="Y35" t="n">
-        <v>744.0463087513776</v>
+        <v>1772.699500980643</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H36" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I36" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K36" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L36" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M36" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N36" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O36" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P36" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q36" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R36" t="n">
         <v>1817.643160879484</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1032.95530920318</v>
+        <v>1091.922083832231</v>
       </c>
       <c r="C37" t="n">
-        <v>860.9827460820957</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D37" t="n">
-        <v>697.6659732088664</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E37" t="n">
-        <v>531.4577673617199</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F37" t="n">
-        <v>359.5959931362803</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G37" t="n">
-        <v>194.3656440439036</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H37" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I37" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J37" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K37" t="n">
-        <v>521.8261615648511</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L37" t="n">
-        <v>977.307346170195</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M37" t="n">
-        <v>1526.218132539476</v>
+        <v>1575.019409015117</v>
       </c>
       <c r="N37" t="n">
-        <v>2057.684287051763</v>
+        <v>1744.928082478454</v>
       </c>
       <c r="O37" t="n">
-        <v>2177.630596344643</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P37" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q37" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S37" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T37" t="n">
-        <v>2248.591813999156</v>
+        <v>2249.469831368049</v>
       </c>
       <c r="U37" t="n">
-        <v>2248.591813999156</v>
+        <v>1969.341380356357</v>
       </c>
       <c r="V37" t="n">
-        <v>1966.880346607185</v>
+        <v>1687.629912964386</v>
       </c>
       <c r="W37" t="n">
-        <v>1692.027942779698</v>
+        <v>1412.777509136899</v>
       </c>
       <c r="X37" t="n">
-        <v>1449.464046225503</v>
+        <v>1412.777509136899</v>
       </c>
       <c r="Y37" t="n">
-        <v>1223.121277915245</v>
+        <v>1282.088052544296</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2025.49241692429</v>
+        <v>1325.938744838813</v>
       </c>
       <c r="C38" t="n">
-        <v>1598.59168693759</v>
+        <v>899.0380148521135</v>
       </c>
       <c r="D38" t="n">
-        <v>1175.29906612259</v>
+        <v>475.7453940371138</v>
       </c>
       <c r="E38" t="n">
-        <v>749.3221262704474</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="G38" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H38" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I38" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J38" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K38" t="n">
-        <v>513.2289698376794</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L38" t="n">
-        <v>829.2827739385804</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M38" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N38" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O38" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P38" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q38" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R38" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S38" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T38" t="n">
-        <v>2488.42270924857</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U38" t="n">
-        <v>2488.42270924857</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="V38" t="n">
-        <v>2488.42270924857</v>
+        <v>1867.812273485521</v>
       </c>
       <c r="W38" t="n">
-        <v>2488.42270924857</v>
+        <v>1867.812273485521</v>
       </c>
       <c r="X38" t="n">
-        <v>2445.340781215819</v>
+        <v>1745.787109130343</v>
       </c>
       <c r="Y38" t="n">
-        <v>2445.340781215819</v>
+        <v>1745.787109130343</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H39" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I39" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K39" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L39" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M39" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N39" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O39" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P39" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q39" t="n">
         <v>1766.562892296344</v>
@@ -7329,52 +7329,52 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I40" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J40" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K40" t="n">
-        <v>443.9044449166302</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L40" t="n">
-        <v>750.9785192448911</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M40" t="n">
-        <v>1299.889305614172</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N40" t="n">
-        <v>1831.355460126458</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O40" t="n">
-        <v>2329.004093722542</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P40" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q40" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S40" t="n">
-        <v>2487.544691879676</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T40" t="n">
-        <v>2307.558588628207</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="U40" t="n">
-        <v>2307.558588628207</v>
+        <v>2056.050408173019</v>
       </c>
       <c r="V40" t="n">
-        <v>2025.847121236236</v>
+        <v>1774.338940781048</v>
       </c>
       <c r="W40" t="n">
-        <v>1750.994717408749</v>
+        <v>1499.486536953561</v>
       </c>
       <c r="X40" t="n">
-        <v>1508.430820854554</v>
+        <v>1282.088052544296</v>
       </c>
       <c r="Y40" t="n">
         <v>1282.088052544296</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1151.372514129446</v>
+        <v>751.0986744465475</v>
       </c>
       <c r="C41" t="n">
-        <v>1151.372514129446</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="D41" t="n">
-        <v>1151.372514129446</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="E41" t="n">
-        <v>1151.372514129446</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="F41" t="n">
-        <v>726.2483323188463</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="G41" t="n">
         <v>324.1979444598476</v>
       </c>
       <c r="H41" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I41" t="n">
         <v>102.0442972147729</v>
       </c>
       <c r="J41" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K41" t="n">
-        <v>513.2289698376792</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L41" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M41" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N41" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O41" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P41" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q41" t="n">
-        <v>2382.200022306147</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S41" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T41" t="n">
-        <v>2488.42270924857</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U41" t="n">
-        <v>2379.332226952882</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V41" t="n">
-        <v>2379.332226952882</v>
+        <v>1609.640458046057</v>
       </c>
       <c r="W41" t="n">
-        <v>1982.940877253229</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X41" t="n">
-        <v>1571.220878420976</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="Y41" t="n">
-        <v>1571.220878420976</v>
+        <v>807.9118383012946</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H42" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I42" t="n">
-        <v>75.07978914432219</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J42" t="n">
-        <v>183.4593521567743</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K42" t="n">
-        <v>355.0869125144393</v>
+        <v>339.6930667592873</v>
       </c>
       <c r="L42" t="n">
-        <v>593.3887605094951</v>
+        <v>577.994914754343</v>
       </c>
       <c r="M42" t="n">
-        <v>874.6212682256942</v>
+        <v>859.2274224705418</v>
       </c>
       <c r="N42" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631353</v>
       </c>
       <c r="O42" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P42" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541191</v>
       </c>
       <c r="R42" t="n">
         <v>1817.643160879484</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.8268581914876</v>
+        <v>1091.922083832231</v>
       </c>
       <c r="C43" t="n">
-        <v>621.964069890586</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D43" t="n">
-        <v>621.964069890586</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E43" t="n">
-        <v>455.7558640434395</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F43" t="n">
-        <v>283.8940898179999</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G43" t="n">
-        <v>118.6637407256232</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H43" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I43" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J43" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K43" t="n">
-        <v>274.543552450829</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L43" t="n">
-        <v>750.9785192448916</v>
+        <v>649.7197290546715</v>
       </c>
       <c r="M43" t="n">
-        <v>1299.889305614172</v>
+        <v>1198.630515423952</v>
       </c>
       <c r="N43" t="n">
-        <v>1831.355460126459</v>
+        <v>1730.096669936239</v>
       </c>
       <c r="O43" t="n">
-        <v>2329.004093722543</v>
+        <v>2177.630596344642</v>
       </c>
       <c r="P43" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.544691879677</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S43" t="n">
-        <v>2487.544691879677</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.591813999157</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="U43" t="n">
-        <v>1968.463362987464</v>
+        <v>2056.050408173019</v>
       </c>
       <c r="V43" t="n">
-        <v>1686.751895595493</v>
+        <v>2025.847121236236</v>
       </c>
       <c r="W43" t="n">
-        <v>1411.899491768006</v>
+        <v>1750.994717408749</v>
       </c>
       <c r="X43" t="n">
-        <v>1169.335595213811</v>
+        <v>1508.430820854554</v>
       </c>
       <c r="Y43" t="n">
-        <v>942.9928269035534</v>
+        <v>1282.088052544296</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1751.062926649413</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="C44" t="n">
-        <v>1324.162196662713</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="D44" t="n">
-        <v>900.8695758477136</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="E44" t="n">
-        <v>474.8926359955712</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="F44" t="n">
-        <v>49.7684541849714</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G44" t="n">
-        <v>49.7684541849714</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H44" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I44" t="n">
         <v>102.0442972147729</v>
       </c>
       <c r="J44" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K44" t="n">
-        <v>513.2289698376792</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L44" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M44" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N44" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O44" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q44" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R44" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S44" t="n">
-        <v>2436.208586465218</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T44" t="n">
-        <v>2225.301688359273</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U44" t="n">
-        <v>2170.911290940943</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V44" t="n">
-        <v>2170.911290940943</v>
+        <v>1609.640458046057</v>
       </c>
       <c r="W44" t="n">
-        <v>2170.911290940943</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X44" t="n">
-        <v>2170.911290940943</v>
+        <v>1131.585602363956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2170.911290940943</v>
+        <v>726.2483323188463</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I45" t="n">
-        <v>75.07978914432219</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K45" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L45" t="n">
-        <v>593.3887605094951</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M45" t="n">
-        <v>874.6212682256942</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N45" t="n">
         <v>1165.638568386506</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.2944755196015</v>
+        <v>928.6053109590015</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3219123985175</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="D46" t="n">
-        <v>687.7374612972657</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E46" t="n">
-        <v>521.5292554501192</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F46" t="n">
-        <v>349.6674812246796</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G46" t="n">
-        <v>184.4371321323029</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H46" t="n">
-        <v>49.7684541849714</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I46" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J46" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K46" t="n">
-        <v>274.543552450829</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L46" t="n">
-        <v>750.9785192448916</v>
+        <v>649.7197290546715</v>
       </c>
       <c r="M46" t="n">
-        <v>1299.889305614172</v>
+        <v>835.7596036629643</v>
       </c>
       <c r="N46" t="n">
-        <v>1831.355460126459</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O46" t="n">
-        <v>2329.004093722543</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P46" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q46" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.544691879677</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S46" t="n">
-        <v>2335.300841815819</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.3479639353</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.219512923607</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="V46" t="n">
-        <v>1816.219512923607</v>
+        <v>1862.530348363007</v>
       </c>
       <c r="W46" t="n">
-        <v>1541.36710909612</v>
+        <v>1587.67794453552</v>
       </c>
       <c r="X46" t="n">
-        <v>1298.803212541925</v>
+        <v>1345.114047981325</v>
       </c>
       <c r="Y46" t="n">
-        <v>1072.460444231667</v>
+        <v>1118.771279671067</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>94.06963836310769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,22 +8853,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>45.34488222711987</v>
+        <v>191.9820560655049</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>66.9239275059623</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>298.5044852260121</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362449</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>160.4493223709198</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017982</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>226.5842672792887</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>326.4130602513782</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541823</v>
+        <v>39.01535248059636</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>360.0219516362448</v>
+        <v>270.6908607606773</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>45.3448822271198</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>234.1036094826143</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>131.3248032493603</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>7.360890261672608</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362447</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>361.2602403819759</v>
+        <v>276.9562095262307</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.54933914661859</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,13 +9807,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>36.84388059892046</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>279.194999279395</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J27" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>50.58002258716805</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.2816062527467</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J30" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>50.58002258716915</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>51.17633202205451</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>15.54933914661851</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>330.8965829449731</v>
+        <v>282.7876593211649</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>330.8965829449731</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>36.84388059891984</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>15.54933914661851</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>180.9904109479196</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>15.54933914661791</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>15.54933914661953</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>352.0620194992343</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>330.8965829449727</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>15.54933914661788</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>352.0620194992343</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>51.17633202205451</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>334.2061267570792</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>369.4660361094515</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.2812641964923</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>223.4583937873268</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>374.2739245188258</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>224.9248672140531</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>113.170424701418</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>71.18055643738097</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>319.6809273932512</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>131.8228369921007</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>161.6137225769666</v>
+        <v>94.83443305869159</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>177.6350202228768</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>255.7732266515492</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.249988891189</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>13.54219405635868</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>79.67257125560224</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,13 +24217,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>131.2282399449845</v>
       </c>
       <c r="G23" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>58.02311833395693</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.87396484652561</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>188.0403730636295</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>357.8018663320615</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>161.1640342016062</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.1959560143833</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>279.6985813350994</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>215.5713246202545</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>271.6851953721275</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>58.37710688276147</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1581495956612</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.5681846249672</v>
+        <v>341.7848517642099</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>20.40769495681144</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2292812507743</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>370.5423855874847</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.3759245895115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>58.37710688276061</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S37" t="n">
         <v>150.7214115632189</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>94.69677860047938</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.0298839804087</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>364.9516900915072</v>
+        <v>286.7978861323046</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S40" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>58.37710688276044</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>24.91375802348111</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>359.4048484324152</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,10 +25639,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.6919815555191</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>147.5905198123376</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>40.69867707198048</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S43" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>248.9930986506363</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>201.7436038409227</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>326.7559279213065</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.3249985542577</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>68.20633367524528</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>46.54567610627817</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404581.534068784</v>
+        <v>404581.5340687839</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>404581.5340687838</v>
+        <v>404581.5340687839</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491402.4273123271</v>
+        <v>491402.427312327</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491402.4273123271</v>
+        <v>491402.427312327</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491402.427312327</v>
+        <v>491402.4273123269</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491402.4273123271</v>
+        <v>491402.427312327</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491402.4273123273</v>
+        <v>491402.4273123271</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491402.4273123273</v>
+        <v>491402.427312327</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>18653.73891296435</v>
       </c>
       <c r="C2" t="n">
-        <v>18653.73891296436</v>
+        <v>18653.73891296435</v>
       </c>
       <c r="D2" t="n">
         <v>18653.73891296436</v>
@@ -26334,7 +26334,7 @@
         <v>146080.8185214745</v>
       </c>
       <c r="I2" t="n">
-        <v>179361.9663110301</v>
+        <v>179361.9663110299</v>
       </c>
       <c r="J2" t="n">
         <v>179361.9663110299</v>
@@ -26343,19 +26343,19 @@
         <v>179361.9663110299</v>
       </c>
       <c r="L2" t="n">
-        <v>179361.96631103</v>
+        <v>179361.9663110299</v>
       </c>
       <c r="M2" t="n">
-        <v>179361.96631103</v>
+        <v>179361.9663110299</v>
       </c>
       <c r="N2" t="n">
         <v>179361.96631103</v>
       </c>
       <c r="O2" t="n">
+        <v>179361.9663110299</v>
+      </c>
+      <c r="P2" t="n">
         <v>179361.96631103</v>
-      </c>
-      <c r="P2" t="n">
-        <v>179361.9663110299</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145239.9140696164</v>
+        <v>145239.9140696161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>12863.07495534992</v>
       </c>
       <c r="I4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="J4" t="n">
         <v>10453.51669590856</v>
       </c>
       <c r="K4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="L4" t="n">
         <v>10453.51669590856</v>
       </c>
       <c r="M4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="N4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="O4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="P4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="J5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="K5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="L5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="M5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="N5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.8260057663</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="P5" t="n">
-        <v>50110.8260057663</v>
+        <v>50110.82600576627</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645025</v>
       </c>
       <c r="C6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645025</v>
       </c>
       <c r="D6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645024</v>
       </c>
       <c r="E6" t="n">
-        <v>-384785.2070894086</v>
+        <v>-385472.4673461656</v>
       </c>
       <c r="F6" t="n">
-        <v>96268.44275308307</v>
+        <v>95581.1824963261</v>
       </c>
       <c r="G6" t="n">
-        <v>96268.44275308299</v>
+        <v>95581.1824963261</v>
       </c>
       <c r="H6" t="n">
-        <v>96268.44275308306</v>
+        <v>95581.18249632606</v>
       </c>
       <c r="I6" t="n">
-        <v>-26442.29046026123</v>
+        <v>-26954.3867812835</v>
       </c>
       <c r="J6" t="n">
-        <v>118797.623609355</v>
+        <v>118285.5272883326</v>
       </c>
       <c r="K6" t="n">
-        <v>118797.6236093551</v>
+        <v>118285.5272883325</v>
       </c>
       <c r="L6" t="n">
-        <v>118797.6236093552</v>
+        <v>118285.5272883326</v>
       </c>
       <c r="M6" t="n">
-        <v>5795.552466859255</v>
+        <v>5283.456145836666</v>
       </c>
       <c r="N6" t="n">
-        <v>118797.6236093552</v>
+        <v>118285.5272883327</v>
       </c>
       <c r="O6" t="n">
-        <v>118797.6236093551</v>
+        <v>118285.5272883325</v>
       </c>
       <c r="P6" t="n">
-        <v>118797.6236093551</v>
+        <v>118285.5272883327</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="J3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="K3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="L3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="M3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="N3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="O3" t="n">
-        <v>563.6147167517446</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517446</v>
+        <v>563.6147167517443</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="J4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121421</v>
       </c>
       <c r="K4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="L4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.105677312142</v>
       </c>
       <c r="M4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="N4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121426</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="P4" t="n">
-        <v>622.1056773121426</v>
+        <v>622.1056773121422</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133.3663409047984</v>
+        <v>133.3663409047981</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.6536013322391</v>
+        <v>168.6536013322387</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,7 +32010,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
         <v>291.4251699938981</v>
@@ -32019,16 +32019,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
         <v>31.86273349432573</v>
@@ -32080,7 +32080,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
@@ -32089,7 +32089,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,16 +32174,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
         <v>3.315028469640403</v>
@@ -32469,7 +32469,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32484,7 +32484,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O20" t="n">
         <v>291.4251699938981</v>
@@ -32493,16 +32493,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I21" t="n">
         <v>31.86273349432573</v>
@@ -32554,7 +32554,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L21" t="n">
         <v>200.9381683613497</v>
@@ -32563,7 +32563,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O21" t="n">
         <v>220.1856947600876</v>
@@ -32575,16 +32575,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L22" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M22" t="n">
         <v>121.6192253234244</v>
@@ -32648,16 +32648,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S22" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T22" t="n">
         <v>3.315028469640403</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H23" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I23" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J23" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K23" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L23" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M23" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N23" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O23" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P23" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q23" t="n">
         <v>244.6795929391957</v>
@@ -32736,10 +32736,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S23" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T23" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U23" t="n">
         <v>0.1812630244829729</v>
@@ -32785,43 +32785,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I24" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J24" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K24" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L24" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M24" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N24" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P24" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R24" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S24" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T24" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H25" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I25" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J25" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K25" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L25" t="n">
         <v>151.1041816025906</v>
@@ -32879,28 +32879,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N25" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O25" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P25" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R25" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S25" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T25" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H26" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I26" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J26" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K26" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L26" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M26" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N26" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O26" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P26" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q26" t="n">
         <v>244.6795929391957</v>
@@ -32973,10 +32973,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S26" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T26" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U26" t="n">
         <v>0.1812630244829729</v>
@@ -33022,43 +33022,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I27" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J27" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K27" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L27" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M27" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N27" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P27" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R27" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S27" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T27" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H28" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I28" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J28" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K28" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L28" t="n">
         <v>151.1041816025906</v>
@@ -33116,28 +33116,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N28" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O28" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P28" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R28" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S28" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T28" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H29" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I29" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J29" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K29" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L29" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M29" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N29" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O29" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P29" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q29" t="n">
         <v>244.6795929391957</v>
@@ -33210,10 +33210,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S29" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T29" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U29" t="n">
         <v>0.1812630244829729</v>
@@ -33259,43 +33259,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I30" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J30" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K30" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L30" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M30" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N30" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P30" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q30" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R30" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S30" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T30" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H31" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I31" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J31" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K31" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L31" t="n">
         <v>151.1041816025906</v>
@@ -33353,28 +33353,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N31" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O31" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P31" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R31" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S31" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T31" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H32" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I32" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J32" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K32" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L32" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M32" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N32" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O32" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P32" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q32" t="n">
         <v>244.6795929391957</v>
@@ -33447,10 +33447,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S32" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T32" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U32" t="n">
         <v>0.1812630244829729</v>
@@ -33496,43 +33496,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I33" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J33" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K33" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L33" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M33" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N33" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P33" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R33" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S33" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T33" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,16 +33572,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H34" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I34" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J34" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K34" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L34" t="n">
         <v>151.1041816025906</v>
@@ -33590,28 +33590,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N34" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O34" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R34" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S34" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T34" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H35" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I35" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J35" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K35" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L35" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M35" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N35" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O35" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P35" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q35" t="n">
         <v>244.6795929391957</v>
@@ -33684,10 +33684,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S35" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T35" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U35" t="n">
         <v>0.1812630244829729</v>
@@ -33733,43 +33733,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I36" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J36" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K36" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L36" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M36" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N36" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P36" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R36" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S36" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T36" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H37" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I37" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J37" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K37" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L37" t="n">
         <v>151.1041816025906</v>
@@ -33827,28 +33827,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N37" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O37" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P37" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R37" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S37" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T37" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H38" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I38" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J38" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K38" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L38" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M38" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N38" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O38" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P38" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q38" t="n">
         <v>244.6795929391957</v>
@@ -33921,10 +33921,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S38" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T38" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U38" t="n">
         <v>0.1812630244829729</v>
@@ -33970,43 +33970,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I39" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J39" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K39" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L39" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M39" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N39" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P39" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q39" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R39" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S39" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T39" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H40" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I40" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J40" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K40" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L40" t="n">
         <v>151.1041816025906</v>
@@ -34064,28 +34064,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N40" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O40" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P40" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R40" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S40" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T40" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H41" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I41" t="n">
-        <v>87.35178439224779</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J41" t="n">
-        <v>192.3059078026468</v>
+        <v>192.3059078026467</v>
       </c>
       <c r="K41" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L41" t="n">
-        <v>357.5583092012099</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M41" t="n">
-        <v>397.8525130968232</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N41" t="n">
-        <v>404.2901827007263</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O41" t="n">
-        <v>381.7597552044443</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P41" t="n">
-        <v>325.8231187429018</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6795929391958</v>
+        <v>244.6795929391957</v>
       </c>
       <c r="R41" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S41" t="n">
-        <v>51.63163963007189</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T41" t="n">
-        <v>9.918486120927684</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U41" t="n">
-        <v>0.181263024482973</v>
+        <v>0.1812630244829729</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.212303353013187</v>
+        <v>1.212303353013186</v>
       </c>
       <c r="H42" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I42" t="n">
-        <v>41.73939175944524</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J42" t="n">
-        <v>114.5360812598994</v>
+        <v>114.5360812598993</v>
       </c>
       <c r="K42" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L42" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M42" t="n">
-        <v>307.1700206297008</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N42" t="n">
-        <v>315.2998970628463</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4378069776593</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P42" t="n">
-        <v>231.4967692258251</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q42" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R42" t="n">
-        <v>75.26915028620472</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S42" t="n">
-        <v>22.51800307022299</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T42" t="n">
-        <v>4.886433251838237</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07975679954034125</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H43" t="n">
-        <v>9.03631463906896</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I43" t="n">
-        <v>30.5645489018815</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J43" t="n">
-        <v>71.85625659308717</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K43" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L43" t="n">
-        <v>151.1041816025907</v>
+        <v>151.1041816025906</v>
       </c>
       <c r="M43" t="n">
-        <v>159.3181731303333</v>
+        <v>159.3181731303332</v>
       </c>
       <c r="N43" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6570756730513</v>
+        <v>143.6570756730512</v>
       </c>
       <c r="P43" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.10582222951344</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R43" t="n">
-        <v>45.6989899844939</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S43" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T43" t="n">
-        <v>4.342605194644588</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05543751312312248</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H44" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224779</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J44" t="n">
-        <v>192.3059078026468</v>
+        <v>192.3059078026467</v>
       </c>
       <c r="K44" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012099</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8525130968232</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N44" t="n">
-        <v>404.2901827007263</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O44" t="n">
-        <v>381.7597552044443</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P44" t="n">
-        <v>325.8231187429018</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6795929391958</v>
+        <v>244.6795929391957</v>
       </c>
       <c r="R44" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007189</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T44" t="n">
-        <v>9.918486120927684</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U44" t="n">
-        <v>0.181263024482973</v>
+        <v>0.1812630244829729</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.212303353013187</v>
+        <v>1.212303353013186</v>
       </c>
       <c r="H45" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944524</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5360812598994</v>
+        <v>114.5360812598993</v>
       </c>
       <c r="K45" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L45" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M45" t="n">
-        <v>307.1700206297008</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2998970628463</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776593</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P45" t="n">
-        <v>231.4967692258251</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q45" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620472</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022299</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838237</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034125</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.03631463906896</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I46" t="n">
-        <v>30.5645489018815</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308717</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K46" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L46" t="n">
-        <v>151.1041816025907</v>
+        <v>151.1041816025906</v>
       </c>
       <c r="M46" t="n">
-        <v>159.3181731303333</v>
+        <v>159.3181731303332</v>
       </c>
       <c r="N46" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6570756730513</v>
+        <v>143.6570756730512</v>
       </c>
       <c r="P46" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951344</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R46" t="n">
-        <v>45.6989899844939</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S46" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T46" t="n">
-        <v>4.342605194644588</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312248</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
@@ -35500,7 +35500,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
-        <v>313.4181048603967</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
         <v>197.0138050378653</v>
@@ -35509,7 +35509,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35573,22 +35573,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799035</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M13" t="n">
         <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
-        <v>143.3233732290875</v>
+        <v>289.9605470674725</v>
       </c>
       <c r="O13" t="n">
-        <v>87.16477557810536</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P13" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35658,7 +35658,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
         <v>254.034210637874</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>193.9629432344876</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
@@ -35743,10 +35743,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>453.4520759799036</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.3845535096019</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055223</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M16" t="n">
-        <v>99.04378543193862</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N16" t="n">
-        <v>258.4278133728874</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>298.0399320683148</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.34794198810393</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285253</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35983,7 +35983,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450201</v>
+        <v>134.3999059901982</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>453.4520759799035</v>
+        <v>364.1209851043361</v>
       </c>
       <c r="M19" t="n">
         <v>99.0437854319386</v>
@@ -36056,13 +36056,13 @@
         <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>132.5096578052252</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P19" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J20" t="n">
         <v>117.3812187638195</v>
@@ -36132,7 +36132,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O20" t="n">
         <v>254.034210637874</v>
@@ -36144,7 +36144,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N21" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>328.3386082872257</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538915</v>
+        <v>162.3084810155642</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055223</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>99.0437854319386</v>
+        <v>99.04378543193862</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O22" t="n">
-        <v>448.4250159600813</v>
+        <v>364.1209851043361</v>
       </c>
       <c r="P22" t="n">
-        <v>71.4556647890261</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J23" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K23" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L23" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M23" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N23" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O23" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P23" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q23" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R23" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J24" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K24" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L24" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M24" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N24" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O24" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P24" t="n">
-        <v>225.275267167615</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R24" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K25" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L25" t="n">
-        <v>509.3762233141268</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M25" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N25" t="n">
-        <v>171.6249226902401</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O25" t="n">
-        <v>121.1578881746268</v>
+        <v>400.3528874540218</v>
       </c>
       <c r="P25" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q25" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J26" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K26" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L26" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M26" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N26" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O26" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P26" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R26" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606463</v>
       </c>
       <c r="J27" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K27" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L27" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M27" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N27" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O27" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P27" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R27" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9283053043579</v>
+        <v>101.7995231963533</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L28" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M28" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N28" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O28" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P28" t="n">
-        <v>100.5426451070169</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.7678657174751</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J29" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K29" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L29" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M29" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N29" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O29" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P29" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q29" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R29" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J30" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K30" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L30" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M30" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N30" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O30" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P30" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R30" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>51.21950060918529</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K31" t="n">
-        <v>147.6972710867078</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L31" t="n">
-        <v>509.3762233141268</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M31" t="n">
-        <v>554.4553397669503</v>
+        <v>187.9190652609019</v>
       </c>
       <c r="N31" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O31" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P31" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.48625946472846</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J32" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K32" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L32" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M32" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N32" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O32" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P32" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R32" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606464</v>
       </c>
       <c r="J33" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K33" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L33" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M33" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N33" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O33" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P33" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q33" t="n">
-        <v>147.5517604457794</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R33" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K34" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L34" t="n">
-        <v>460.0820046518626</v>
+        <v>411.9730810280543</v>
       </c>
       <c r="M34" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N34" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O34" t="n">
-        <v>121.1578881746268</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P34" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J35" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K35" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L35" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M35" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N35" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O35" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P35" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q35" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R35" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J36" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K36" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L36" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M36" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N36" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O36" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P36" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R36" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K37" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L37" t="n">
-        <v>460.0820046518626</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M37" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N37" t="n">
-        <v>536.8344995073602</v>
+        <v>171.6249226902394</v>
       </c>
       <c r="O37" t="n">
-        <v>121.1578881746268</v>
+        <v>121.1578881746267</v>
       </c>
       <c r="P37" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q37" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J38" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K38" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L38" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M38" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N38" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O38" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P38" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q38" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R38" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J39" t="n">
-        <v>93.924966926566</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K39" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L39" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M39" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N39" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O39" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P39" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.5517604457794</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R39" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>51.21950060918529</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K40" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L40" t="n">
-        <v>310.175832654809</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M40" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N40" t="n">
-        <v>536.8344995073602</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O40" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P40" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.48625946472846</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.80388184828429</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J41" t="n">
-        <v>162.8859483170603</v>
+        <v>162.8859483170602</v>
       </c>
       <c r="K41" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L41" t="n">
-        <v>319.2462667685869</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M41" t="n">
-        <v>360.4212501973914</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N41" t="n">
-        <v>367.0105598662803</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O41" t="n">
-        <v>344.3687958484202</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2477569326705</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q41" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R41" t="n">
-        <v>107.2956433761853</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.56700500944524</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J42" t="n">
-        <v>109.4743060731839</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K42" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L42" t="n">
-        <v>240.7089373687433</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M42" t="n">
-        <v>284.0732401173728</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N42" t="n">
-        <v>293.9568688493046</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O42" t="n">
-        <v>265.2659172554371</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P42" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R42" t="n">
-        <v>51.59623089206058</v>
+        <v>67.14557003868005</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K43" t="n">
-        <v>97.11724849953872</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L43" t="n">
-        <v>481.2474412061238</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M43" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N43" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O43" t="n">
-        <v>502.6753874707917</v>
+        <v>452.0544711195994</v>
       </c>
       <c r="P43" t="n">
-        <v>100.5426451070169</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.48625946472849</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828429</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8859483170603</v>
+        <v>162.8859483170602</v>
       </c>
       <c r="K44" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L44" t="n">
-        <v>319.2462667685869</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973914</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N44" t="n">
-        <v>367.0105598662803</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O44" t="n">
-        <v>344.3687958484202</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2477569326705</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q44" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R44" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.56700500944524</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J45" t="n">
-        <v>93.92496692656603</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K45" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L45" t="n">
-        <v>256.2582765153612</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M45" t="n">
-        <v>284.0732401173728</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N45" t="n">
-        <v>293.9568688493046</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O45" t="n">
-        <v>265.2659172554371</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P45" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206058</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K46" t="n">
-        <v>97.11724849953872</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L46" t="n">
-        <v>481.2474412061238</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M46" t="n">
-        <v>554.4553397669503</v>
+        <v>187.9190652609019</v>
       </c>
       <c r="N46" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O46" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P46" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.48625946472849</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
